--- a/src/城市道路导入模板_V1.0.xlsx
+++ b/src/城市道路导入模板_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Life Style\片区软件产品\数据采集工具集\roadMap\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A77310-4309-4896-9CB0-2203F22E7158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78B8F7-EE82-4C55-89E1-D2A090FE5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7900" yWindow="2550" windowWidth="13140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息填写" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>必填信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>养护结束时间(年、月、日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海城建设计研究院有限公司</t>
+  </si>
+  <si>
+    <t>上海公路桥梁（集团）有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -484,8 +499,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,11 +780,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -780,15 +793,17 @@
     <col min="2" max="5" width="8.6640625" style="3"/>
     <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.6640625" style="3"/>
-    <col min="9" max="10" width="26.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.25" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3"/>
-    <col min="13" max="13" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="3"/>
+    <col min="13" max="13" width="26.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -808,9 +823,11 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -835,10 +852,10 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -848,19 +865,25 @@
         <v>12</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -898,17 +921,23 @@
         <v>45</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K1:R1"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/城市道路导入模板_V1.0.xlsx
+++ b/src/城市道路导入模板_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Life Style\片区软件产品\数据采集工具集\roadMap\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78B8F7-EE82-4C55-89E1-D2A090FE5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD2A48F-8DCC-4170-BB60-2E345BE9B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7900" yWindow="2550" windowWidth="13140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息填写" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>必填信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>上海公路桥梁（集团）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径路口位置信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -481,6 +485,9 @@
     </xf>
     <xf numFmtId="31" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,11 +787,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -794,40 +801,42 @@
     <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.6640625" style="3"/>
     <col min="9" max="10" width="26.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="3"/>
-    <col min="13" max="13" width="26.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="3"/>
+    <col min="11" max="11" width="26.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="3"/>
+    <col min="14" max="14" width="26.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -858,32 +867,35 @@
       <c r="J2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -914,30 +926,31 @@
       <c r="J3" s="14">
         <v>46021</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="14"/>
+      <c r="L3" s="11">
         <v>21.5</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -971,7 +984,7 @@
           <x14:formula2>
             <xm:f>下拉选项!G2</xm:f>
           </x14:formula2>
-          <xm:sqref>I4:J1000</xm:sqref>
+          <xm:sqref>I4:K1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
